--- a/MEDIA/2998_拉亞直營營業額(2020-01-01~2020-01-31).xlsx
+++ b/MEDIA/2998_拉亞直營營業額(2020-01-01~2020-01-31).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,12 +500,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-01-04</t>
+          <t>2020-01-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>三</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,25 +514,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1890</v>
+        <v>26200</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="F3" t="n">
-        <v>105</v>
+        <v>9800</v>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>37.4</v>
       </c>
       <c r="H3" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>1785</v>
+        <v>9830</v>
       </c>
       <c r="J3" t="n">
-        <v>94.40000000000001</v>
+        <v>37.5</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -553,22 +553,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4015</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.3</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2555</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,21 +580,21 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="AA3" t="n">
-        <v>79</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>三</t>
+          <t>四</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1245</v>
+        <v>19792</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F4" t="n">
-        <v>95</v>
+        <v>7835</v>
       </c>
       <c r="G4" t="n">
-        <v>7.6</v>
+        <v>39.6</v>
       </c>
       <c r="H4" t="n">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="I4" t="n">
-        <v>990</v>
+        <v>8722</v>
       </c>
       <c r="J4" t="n">
-        <v>79.5</v>
+        <v>44.1</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -642,22 +642,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1240</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>6.3</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1995</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -669,21 +669,21 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="AA4" t="n">
-        <v>62</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-01-11</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>六</t>
+          <t>五</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -692,25 +692,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1745</v>
+        <v>19265</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>7110</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>36.9</v>
       </c>
       <c r="H5" t="n">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="I5" t="n">
-        <v>1710</v>
+        <v>8445</v>
       </c>
       <c r="J5" t="n">
-        <v>98</v>
+        <v>43.8</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -731,22 +731,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1765</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1945</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>10.1</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -758,21 +758,21 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>20</v>
+        <v>180</v>
       </c>
       <c r="AA5" t="n">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2020-01-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>二</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -781,25 +781,25 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>910</v>
+        <v>25830</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="F6" t="n">
-        <v>65</v>
+        <v>11700</v>
       </c>
       <c r="G6" t="n">
-        <v>7.1</v>
+        <v>45.3</v>
       </c>
       <c r="H6" t="n">
-        <v>15</v>
+        <v>79</v>
       </c>
       <c r="I6" t="n">
-        <v>845</v>
+        <v>6385</v>
       </c>
       <c r="J6" t="n">
-        <v>92.90000000000001</v>
+        <v>24.7</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1570</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>6175</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>23.9</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -847,16 +847,16 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>16</v>
+        <v>189</v>
       </c>
       <c r="AA6" t="n">
-        <v>57</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-01-19</t>
+          <t>2020-01-05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -870,34 +870,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1670</v>
+        <v>31185</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="F7" t="n">
-        <v>250</v>
+        <v>12255</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>39.3</v>
       </c>
       <c r="H7" t="n">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="I7" t="n">
-        <v>655</v>
+        <v>9505</v>
       </c>
       <c r="J7" t="n">
-        <v>39.2</v>
+        <v>30.5</v>
       </c>
       <c r="K7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>45.8</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -909,22 +909,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>5370</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>4055</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -936,21 +936,21 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="AA7" t="n">
-        <v>80</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>四</t>
+          <t>一</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -959,34 +959,34 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1145</v>
+        <v>20795</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="F8" t="n">
-        <v>95</v>
+        <v>9310</v>
       </c>
       <c r="G8" t="n">
-        <v>8.300000000000001</v>
+        <v>44.8</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="I8" t="n">
-        <v>625</v>
+        <v>6815</v>
       </c>
       <c r="J8" t="n">
-        <v>54.6</v>
+        <v>32.8</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>37.1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1960</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2710</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1025,91 +1025,1960 @@
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="AA8" t="n">
-        <v>76</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-01-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>17935</v>
+      </c>
+      <c r="E9" t="n">
+        <v>35</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4415</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>137</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9885</v>
+      </c>
+      <c r="J9" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>8</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1375</v>
+      </c>
+      <c r="S9" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="T9" t="n">
+        <v>13</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2260</v>
+      </c>
+      <c r="V9" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>193</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-01-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>21520</v>
+      </c>
+      <c r="E10" t="n">
+        <v>65</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>37.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>120</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8085</v>
+      </c>
+      <c r="J10" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>160</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>12</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2650</v>
+      </c>
+      <c r="S10" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>16</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2625</v>
+      </c>
+      <c r="V10" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>214</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-01-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>22740</v>
+      </c>
+      <c r="E11" t="n">
+        <v>61</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7910</v>
+      </c>
+      <c r="G11" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>102</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8905</v>
+      </c>
+      <c r="J11" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1860</v>
+      </c>
+      <c r="S11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T11" t="n">
+        <v>21</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4065</v>
+      </c>
+      <c r="V11" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>191</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-01-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>23520</v>
+      </c>
+      <c r="E12" t="n">
+        <v>63</v>
+      </c>
+      <c r="F12" t="n">
+        <v>7970</v>
+      </c>
+      <c r="G12" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>127</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10080</v>
+      </c>
+      <c r="J12" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>12</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2730</v>
+      </c>
+      <c r="S12" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>15</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2740</v>
+      </c>
+      <c r="V12" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>217</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-01-11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>六</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>27925</v>
+      </c>
+      <c r="E13" t="n">
+        <v>71</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12615</v>
+      </c>
+      <c r="G13" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>92</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10405</v>
+      </c>
+      <c r="J13" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>8</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1960</v>
+      </c>
+      <c r="S13" t="n">
+        <v>7</v>
+      </c>
+      <c r="T13" t="n">
+        <v>18</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2945</v>
+      </c>
+      <c r="V13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>189</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-01-12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>31025</v>
+      </c>
+      <c r="E14" t="n">
+        <v>48</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7325</v>
+      </c>
+      <c r="G14" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="H14" t="n">
+        <v>94</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11475</v>
+      </c>
+      <c r="J14" t="n">
+        <v>37</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>24</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5420</v>
+      </c>
+      <c r="S14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>34</v>
+      </c>
+      <c r="U14" t="n">
+        <v>6805</v>
+      </c>
+      <c r="V14" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>200</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>22625</v>
+      </c>
+      <c r="E15" t="n">
+        <v>53</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7065</v>
+      </c>
+      <c r="G15" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>112</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8130</v>
+      </c>
+      <c r="J15" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2100</v>
+      </c>
+      <c r="S15" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="T15" t="n">
+        <v>29</v>
+      </c>
+      <c r="U15" t="n">
+        <v>5330</v>
+      </c>
+      <c r="V15" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>204</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>17385</v>
+      </c>
+      <c r="E16" t="n">
+        <v>42</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5005</v>
+      </c>
+      <c r="G16" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6845</v>
+      </c>
+      <c r="J16" t="n">
+        <v>39.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>18</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3885</v>
+      </c>
+      <c r="S16" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>10</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1650</v>
+      </c>
+      <c r="V16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>165</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>18810</v>
+      </c>
+      <c r="E17" t="n">
+        <v>58</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8505</v>
+      </c>
+      <c r="G17" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>115</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8330</v>
+      </c>
+      <c r="J17" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>11</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1975</v>
+      </c>
+      <c r="V17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>184</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>23365</v>
+      </c>
+      <c r="E18" t="n">
+        <v>69</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10265</v>
+      </c>
+      <c r="G18" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>113</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8195</v>
+      </c>
+      <c r="J18" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>17</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3520</v>
+      </c>
+      <c r="S18" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="T18" t="n">
+        <v>9</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1385</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>208</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>23530</v>
+      </c>
+      <c r="E19" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8330</v>
+      </c>
+      <c r="G19" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>89</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6340</v>
+      </c>
+      <c r="J19" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9</v>
+      </c>
+      <c r="L19" t="n">
+        <v>865</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>21</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5135</v>
+      </c>
+      <c r="S19" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="T19" t="n">
+        <v>14</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2860</v>
+      </c>
+      <c r="V19" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>193</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-01-18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>六</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>27079</v>
+      </c>
+      <c r="E20" t="n">
+        <v>65</v>
+      </c>
+      <c r="F20" t="n">
+        <v>11665</v>
+      </c>
+      <c r="G20" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>84</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7349</v>
+      </c>
+      <c r="J20" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8</v>
+      </c>
+      <c r="L20" t="n">
+        <v>935</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>16</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3415</v>
+      </c>
+      <c r="S20" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="T20" t="n">
+        <v>23</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3715</v>
+      </c>
+      <c r="V20" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>196</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-01-19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>30135</v>
+      </c>
+      <c r="E21" t="n">
+        <v>75</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13370</v>
+      </c>
+      <c r="G21" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>88</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8240</v>
+      </c>
+      <c r="J21" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1025</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>11</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3435</v>
+      </c>
+      <c r="S21" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>22</v>
+      </c>
+      <c r="U21" t="n">
+        <v>4065</v>
+      </c>
+      <c r="V21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>203</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-01-20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>21975</v>
+      </c>
+      <c r="E22" t="n">
+        <v>58</v>
+      </c>
+      <c r="F22" t="n">
+        <v>7685</v>
+      </c>
+      <c r="G22" t="n">
+        <v>35</v>
+      </c>
+      <c r="H22" t="n">
+        <v>103</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6515</v>
+      </c>
+      <c r="J22" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>595</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>13</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3815</v>
+      </c>
+      <c r="S22" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>19</v>
+      </c>
+      <c r="U22" t="n">
+        <v>3365</v>
+      </c>
+      <c r="V22" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>201</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-01-21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>22285</v>
+      </c>
+      <c r="E23" t="n">
+        <v>63</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8920</v>
+      </c>
+      <c r="G23" t="n">
+        <v>40</v>
+      </c>
+      <c r="H23" t="n">
+        <v>94</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7185</v>
+      </c>
+      <c r="J23" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>14</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1250</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2110</v>
+      </c>
+      <c r="S23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>14</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2820</v>
+      </c>
+      <c r="V23" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>194</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-01-22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>21170</v>
+      </c>
+      <c r="E24" t="n">
+        <v>58</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8920</v>
+      </c>
+      <c r="G24" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>107</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8510</v>
+      </c>
+      <c r="J24" t="n">
+        <v>40.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>9</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>11</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1665</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="T24" t="n">
+        <v>4</v>
+      </c>
+      <c r="U24" t="n">
+        <v>725</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>189</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20305</v>
+      </c>
+      <c r="E25" t="n">
+        <v>44</v>
+      </c>
+      <c r="F25" t="n">
+        <v>7075</v>
+      </c>
+      <c r="G25" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>79</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7060</v>
+      </c>
+      <c r="J25" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>620</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>12</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2380</v>
+      </c>
+      <c r="S25" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="T25" t="n">
+        <v>17</v>
+      </c>
+      <c r="U25" t="n">
+        <v>3170</v>
+      </c>
+      <c r="V25" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>157</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-01-28</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>27310</v>
+      </c>
+      <c r="E26" t="n">
+        <v>49</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8136</v>
+      </c>
+      <c r="G26" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>54</v>
+      </c>
+      <c r="I26" t="n">
+        <v>7609</v>
+      </c>
+      <c r="J26" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>7</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1085</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>24</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6135</v>
+      </c>
+      <c r="S26" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>19</v>
+      </c>
+      <c r="U26" t="n">
+        <v>4345</v>
+      </c>
+      <c r="V26" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>153</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-01-29</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>27630</v>
+      </c>
+      <c r="E27" t="n">
+        <v>51</v>
+      </c>
+      <c r="F27" t="n">
+        <v>10125</v>
+      </c>
+      <c r="G27" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>71</v>
+      </c>
+      <c r="I27" t="n">
+        <v>9235</v>
+      </c>
+      <c r="J27" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1220</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>17</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3350</v>
+      </c>
+      <c r="S27" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="T27" t="n">
+        <v>20</v>
+      </c>
+      <c r="U27" t="n">
+        <v>3700</v>
+      </c>
+      <c r="V27" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>166</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-01-30</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>23265</v>
+      </c>
+      <c r="E28" t="n">
+        <v>55</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7945</v>
+      </c>
+      <c r="G28" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>109</v>
+      </c>
+      <c r="I28" t="n">
+        <v>7980</v>
+      </c>
+      <c r="J28" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>10</v>
+      </c>
+      <c r="L28" t="n">
+        <v>830</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>12</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3060</v>
+      </c>
+      <c r="S28" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="T28" t="n">
+        <v>17</v>
+      </c>
+      <c r="U28" t="n">
+        <v>3450</v>
+      </c>
+      <c r="V28" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>203</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-01-31</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>拉亞農安</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>25001</v>
+      </c>
+      <c r="E29" t="n">
+        <v>59</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8095</v>
+      </c>
+      <c r="G29" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>109</v>
+      </c>
+      <c r="I29" t="n">
+        <v>8496</v>
+      </c>
+      <c r="J29" t="n">
+        <v>34</v>
+      </c>
+      <c r="K29" t="n">
+        <v>22</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2345</v>
+      </c>
+      <c r="M29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>11</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2870</v>
+      </c>
+      <c r="S29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="T29" t="n">
+        <v>18</v>
+      </c>
+      <c r="U29" t="n">
+        <v>3195</v>
+      </c>
+      <c r="V29" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>219</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>小計</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>8605</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>645</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="H9" t="n">
-        <v>99</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6610</v>
-      </c>
-      <c r="J9" t="n">
-        <v>76.8</v>
-      </c>
-      <c r="K9" t="n">
-        <v>10</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1350</v>
-      </c>
-      <c r="M9" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>116</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>74</v>
+      <c r="D30" t="n">
+        <v>639602</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1576</v>
+      </c>
+      <c r="F30" t="n">
+        <v>237351</v>
+      </c>
+      <c r="G30" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2686</v>
+      </c>
+      <c r="I30" t="n">
+        <v>224556</v>
+      </c>
+      <c r="J30" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>107</v>
+      </c>
+      <c r="L30" t="n">
+        <v>12280</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>337</v>
+      </c>
+      <c r="R30" t="n">
+        <v>78790</v>
+      </c>
+      <c r="S30" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="T30" t="n">
+        <v>465</v>
+      </c>
+      <c r="U30" t="n">
+        <v>86625</v>
+      </c>
+      <c r="V30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>5171</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
